--- a/inventory exposure sim/uniswap_v3_lp_analysis_r5.xlsx
+++ b/inventory exposure sim/uniswap_v3_lp_analysis_r5.xlsx
@@ -518,13 +518,13 @@
         <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>96</v>
+        <v>-32.87671232876712</v>
       </c>
       <c r="G3" t="n">
-        <v>96</v>
+        <v>-30.02005979290482</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>91.31101520341883</v>
       </c>
     </row>
     <row r="4">
@@ -544,13 +544,13 @@
         <v>80.70548396841932</v>
       </c>
       <c r="F4" t="n">
-        <v>48.97959183673471</v>
+        <v>-24.74226804123711</v>
       </c>
       <c r="G4" t="n">
-        <v>42.89809294501386</v>
+        <v>-19.38281475247133</v>
       </c>
       <c r="H4" t="n">
-        <v>87.58360642940328</v>
+        <v>78.33887629123831</v>
       </c>
     </row>
     <row r="5">
@@ -570,13 +570,13 @@
         <v>71.29986476750977</v>
       </c>
       <c r="F5" t="n">
-        <v>32.87671232876712</v>
+        <v>-19.83471074380164</v>
       </c>
       <c r="G5" t="n">
-        <v>24.04303089094208</v>
+        <v>-14.00493907779026</v>
       </c>
       <c r="H5" t="n">
-        <v>73.13088562661551</v>
+        <v>70.60823451719259</v>
       </c>
     </row>
     <row r="6">
@@ -596,13 +596,13 @@
         <v>65.34653465346535</v>
       </c>
       <c r="F6" t="n">
-        <v>24.74226804123709</v>
+        <v>-16.55172413793105</v>
       </c>
       <c r="G6" t="n">
-        <v>16.28574819018849</v>
+        <v>-10.79937416041439</v>
       </c>
       <c r="H6" t="n">
-        <v>65.82156560201184</v>
+        <v>65.24621888583688</v>
       </c>
     </row>
     <row r="7">
@@ -622,13 +622,13 @@
         <v>61.03968141579029</v>
       </c>
       <c r="F7" t="n">
-        <v>19.83471074380168</v>
+        <v>-14.20118343195265</v>
       </c>
       <c r="G7" t="n">
-        <v>12.10683676125266</v>
+        <v>-8.687173283173244</v>
       </c>
       <c r="H7" t="n">
-        <v>61.03863533798209</v>
+        <v>61.17217853567833</v>
       </c>
     </row>
     <row r="8">
@@ -648,13 +648,13 @@
         <v>57.66129032258063</v>
       </c>
       <c r="F8" t="n">
-        <v>16.55172413793102</v>
+        <v>-12.43523316062176</v>
       </c>
       <c r="G8" t="n">
-        <v>9.513639644639781</v>
+        <v>-7.197972117526796</v>
       </c>
       <c r="H8" t="n">
-        <v>57.47823951969872</v>
+        <v>57.88369244511132</v>
       </c>
     </row>
     <row r="9">
@@ -674,13 +674,13 @@
         <v>54.8646224293232</v>
       </c>
       <c r="F9" t="n">
-        <v>14.20118343195267</v>
+        <v>-11.05990783410138</v>
       </c>
       <c r="G9" t="n">
-        <v>7.756265980138366</v>
+        <v>-6.095481676379199</v>
       </c>
       <c r="H9" t="n">
-        <v>54.61703961014097</v>
+        <v>55.11331349059527</v>
       </c>
     </row>
     <row r="10">
@@ -700,13 +700,13 @@
         <v>52.45974629412549</v>
       </c>
       <c r="F10" t="n">
-        <v>12.43523316062176</v>
+        <v>-9.958506224066399</v>
       </c>
       <c r="G10" t="n">
-        <v>6.491148440134142</v>
+        <v>-5.248584357166031</v>
       </c>
       <c r="H10" t="n">
-        <v>52.19965203941206</v>
+        <v>52.70453458654218</v>
       </c>
     </row>
     <row r="11">
@@ -726,13 +726,13 @@
         <v>50.33294920498658</v>
       </c>
       <c r="F11" t="n">
-        <v>11.0599078341014</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.539320253483715</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>50.08468729191517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
